--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3778,312 +3778,312 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8510,208 +8510,208 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" t="n">
         <v>10</v>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" t="n">
         <v>7</v>
       </c>
-      <c r="E156" s="2" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G156" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L156" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" t="n">
         <v>10</v>
       </c>
-      <c r="B157" s="2" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" t="n">
         <v>8</v>
       </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>10</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>9</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>10</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>10</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F159" s="2" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/17/word_level_predictions_17.xlsx
@@ -3778,312 +3778,312 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8510,208 +8510,208 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E156" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E159" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11422,364 +11422,364 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>13</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>8</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>13</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>9</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>13</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>10</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>13</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>11</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
